--- a/biology/Zoologie/Aegithalidae/Aegithalidae.xlsx
+++ b/biology/Zoologie/Aegithalidae/Aegithalidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aegithalidae, aussi appelées mésanges à longue queue, tupinets ou orites, forment une famille de passereaux constituée de trois genres et treize espèces. L'espèce Aegithalos caudatus du Paléarctique, dont le nom vulgaire français est « Mésange à longue queue », donne son nom aux autres espèces de la famille. Cependant, si les Aegithalidae sont appelés « mésanges » dans le langage courant, ainsi que les Remizidae et les Panuridae, ils ne sont pas directement apparentés aux « mésanges vraies » de la famille des Paridae ; il est donc proposé de remplacer leurs noms normalisés.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018) :
 Aegithalos Hermann, 1804
 Leptopoecile Severtzov 1873
 Psaltriparus Bonaparte, 1850</t>
@@ -596,9 +614,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] (ordre phylogénique) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018) (ordre phylogénique) :
 Aegithalos caudatus – Mésange à longue queue
 Aegithalos glaucogularis – Mésange à gorge d'argent
 Aegithalos leucogenys – Mésange à joues blanches
